--- a/Powell10year/DecadePowellRelease.xlsx
+++ b/Powell10year/DecadePowellRelease.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\Powell10year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FB1FF6CA-1E09-46A5-9D92-CEDA69A78FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A3366-B8BA-4476-A359-A5CD2CFB3D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DecadePowellRelease" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,6 +724,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1076,11 +1082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,7 +1114,7 @@
       <c r="B2" s="4">
         <v>90.9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>8.4</v>
       </c>
     </row>
@@ -1119,7 +1125,7 @@
       <c r="B3" s="4">
         <v>90</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>7.5</v>
       </c>
     </row>
@@ -1130,7 +1136,7 @@
       <c r="B4" s="4">
         <v>90.1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>7.6</v>
       </c>
     </row>
@@ -1141,7 +1147,7 @@
       <c r="B5" s="4">
         <v>89.3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>6.8</v>
       </c>
     </row>
@@ -1152,7 +1158,7 @@
       <c r="B6" s="4">
         <v>88.6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>6.1</v>
       </c>
     </row>
@@ -1163,7 +1169,7 @@
       <c r="B7" s="4">
         <v>87.9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>5.4</v>
       </c>
     </row>
@@ -1174,7 +1180,7 @@
       <c r="B8" s="4">
         <v>88.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1185,7 +1191,7 @@
       <c r="B9" s="4">
         <v>88.5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1196,7 +1202,7 @@
       <c r="B10" s="4">
         <v>87.7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>5.2</v>
       </c>
     </row>
@@ -1207,7 +1213,7 @@
       <c r="B11" s="4">
         <v>82.9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>0.4</v>
       </c>
     </row>
@@ -1218,7 +1224,7 @@
       <c r="B12" s="4">
         <v>83.7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>1.2</v>
       </c>
     </row>
@@ -1229,7 +1235,7 @@
       <c r="B13" s="4">
         <v>87</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>4.5</v>
       </c>
     </row>
@@ -1240,7 +1246,7 @@
       <c r="B14" s="4">
         <v>91.1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>8.6</v>
       </c>
     </row>
@@ -1251,7 +1257,7 @@
       <c r="B15" s="4">
         <v>97.3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>14.8</v>
       </c>
     </row>
@@ -1262,7 +1268,7 @@
       <c r="B16" s="4">
         <v>100.2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>17.7</v>
       </c>
     </row>
@@ -1273,7 +1279,7 @@
       <c r="B17" s="4">
         <v>101.5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>19</v>
       </c>
     </row>
@@ -1284,7 +1290,7 @@
       <c r="B18" s="4">
         <v>101.6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>19.100000000000001</v>
       </c>
     </row>
@@ -1295,7 +1301,7 @@
       <c r="B19" s="4">
         <v>101.5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>19</v>
       </c>
     </row>
@@ -1306,7 +1312,7 @@
       <c r="B20" s="4">
         <v>101.3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>18.8</v>
       </c>
     </row>
@@ -1317,7 +1323,7 @@
       <c r="B21" s="4">
         <v>101.3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>18.8</v>
       </c>
     </row>
@@ -1328,7 +1334,7 @@
       <c r="B22" s="4">
         <v>100.4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -1339,7 +1345,7 @@
       <c r="B23" s="4">
         <v>97.1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>14.6</v>
       </c>
     </row>
@@ -1350,7 +1356,7 @@
       <c r="B24" s="4">
         <v>92</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>9.5</v>
       </c>
     </row>
@@ -1361,7 +1367,7 @@
       <c r="B25" s="4">
         <v>90.4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>7.9</v>
       </c>
     </row>
@@ -1372,7 +1378,7 @@
       <c r="B26" s="4">
         <v>96.5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>14</v>
       </c>
     </row>
@@ -1383,7 +1389,7 @@
       <c r="B27" s="4">
         <v>105.4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <v>22.9</v>
       </c>
     </row>
@@ -1394,7 +1400,7 @@
       <c r="B28" s="4">
         <v>117.3</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -1405,7 +1411,7 @@
       <c r="B29" s="4">
         <v>127.5</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>45</v>
       </c>
     </row>
@@ -1416,7 +1422,7 @@
       <c r="B30" s="4">
         <v>128</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>45.5</v>
       </c>
     </row>
@@ -1427,7 +1433,7 @@
       <c r="B31" s="4">
         <v>127.9</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>45.4</v>
       </c>
     </row>
@@ -1438,7 +1444,7 @@
       <c r="B32" s="4">
         <v>130.9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <v>48.4</v>
       </c>
     </row>
@@ -1449,7 +1455,7 @@
       <c r="B33" s="4">
         <v>131.1</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <v>48.6</v>
       </c>
     </row>
@@ -1460,7 +1466,7 @@
       <c r="B34" s="4">
         <v>131.6</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <v>49.1</v>
       </c>
     </row>
@@ -1471,7 +1477,7 @@
       <c r="B35" s="4">
         <v>126.7</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <v>44.2</v>
       </c>
     </row>
@@ -1482,7 +1488,7 @@
       <c r="B36" s="4">
         <v>118</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="7">
         <v>35.5</v>
       </c>
     </row>
@@ -1493,7 +1499,7 @@
       <c r="B37" s="4">
         <v>108.8</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="7">
         <v>26.3</v>
       </c>
     </row>
@@ -1504,7 +1510,7 @@
       <c r="B38" s="4">
         <v>96.9</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <v>14.4</v>
       </c>
     </row>
@@ -1515,7 +1521,7 @@
       <c r="B39" s="4">
         <v>88.6</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>6.1</v>
       </c>
     </row>
@@ -1526,7 +1532,7 @@
       <c r="B40" s="4">
         <v>89.5</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1537,7 +1543,7 @@
       <c r="B41" s="4">
         <v>90</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="7">
         <v>7.5</v>
       </c>
     </row>
@@ -1548,7 +1554,7 @@
       <c r="B42" s="4">
         <v>87.5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1559,7 +1565,7 @@
       <c r="B43" s="4">
         <v>88.1</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="7">
         <v>5.6</v>
       </c>
     </row>
@@ -1570,7 +1576,7 @@
       <c r="B44" s="4">
         <v>87.9</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="7">
         <v>5.4</v>
       </c>
     </row>
@@ -1581,7 +1587,7 @@
       <c r="B45" s="4">
         <v>87.8</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>5.3</v>
       </c>
     </row>
@@ -1592,7 +1598,7 @@
       <c r="B46" s="4">
         <v>86.9</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="7">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1603,7 +1609,7 @@
       <c r="B47" s="4">
         <v>88.8</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="7">
         <v>6.3</v>
       </c>
     </row>
